--- a/01計画/議事録チェック一覧 .xlsx
+++ b/01計画/議事録チェック一覧 .xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{BE98C24A-A595-4DD8-9AF0-FB7644A02434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63093814-7B67-439C-A649-61B2368CE44B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBDE5B0-F6A6-4A5B-B9D1-18F92122DBAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="2910" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22830" yWindow="975" windowWidth="15780" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="議事録チェック一覧" sheetId="1" r:id="rId1"/>
     <sheet name="リスト" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>受講生記入</t>
     <rPh sb="0" eb="3">
@@ -112,12 +110,16 @@
     <t>NG</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>レビュー結果記録_計画_合否.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,7 +251,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -572,17 +574,17 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="43.75" customWidth="1"/>
     <col min="4" max="4" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -592,7 +594,7 @@
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -606,7 +608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="54">
+    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -620,401 +622,401 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1049,14 +1051,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1078,6 +1080,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1261,20 +1269,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E186EF8-653E-48CB-A31C-719D8F847E6E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E186EF8-653E-48CB-A31C-719D8F847E6E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01計画/議事録チェック一覧 .xlsx
+++ b/01計画/議事録チェック一覧 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBDE5B0-F6A6-4A5B-B9D1-18F92122DBAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151CA29E-0590-40CF-850E-700B4AA3D43B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22830" yWindow="975" windowWidth="15780" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22830" yWindow="375" windowWidth="15780" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="議事録チェック一覧" sheetId="1" r:id="rId1"/>
@@ -1080,12 +1080,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1269,6 +1263,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}">
   <ds:schemaRefs>
@@ -1278,15 +1278,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E186EF8-653E-48CB-A31C-719D8F847E6E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1302,4 +1293,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01計画/議事録チェック一覧 .xlsx
+++ b/01計画/議事録チェック一覧 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151CA29E-0590-40CF-850E-700B4AA3D43B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD0EEC9-30B9-4071-82C4-C518AE91EA34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22830" yWindow="375" windowWidth="15780" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="780" windowWidth="16155" windowHeight="9705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="議事録チェック一覧" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>受講生記入</t>
     <rPh sb="0" eb="3">
@@ -112,6 +112,23 @@
   </si>
   <si>
     <t>レビュー結果記録_計画_合否.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計画</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー結果記録_要求分析_合否.xlsx</t>
+    <rPh sb="9" eb="11">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンセキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -574,7 +591,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -610,7 +627,7 @@
     </row>
     <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -624,7 +641,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -633,8 +650,12 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
@@ -1071,12 +1092,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1264,15 +1282,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1296,10 +1318,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B62B9506-AA92-4E37-8DA3-A8F59495A48C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AA907C-86CB-4E36-9751-82250FE82CF1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>